--- a/Docs/Menu功能表.xlsx
+++ b/Docs/Menu功能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\FTIS-EmpManager\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E023E6-DD82-4D1B-887C-26299CEDB9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983F57D4-C6A6-41C0-829F-FD6E2338CF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>一、MenuPath</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>EmpUserController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工基本資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpBasicController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id="EmpBasic", Name = "員工基本資料", MenuPath = "個人資訊", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +526,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -608,6 +620,17 @@
       </c>
       <c r="C13" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">

--- a/Docs/Menu功能表.xlsx
+++ b/Docs/Menu功能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\FTIS-EmpManager\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983F57D4-C6A6-41C0-829F-FD6E2338CF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A620547-E1CB-4D45-867D-FA0A80BFB211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,15 +153,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>員工基本資料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EmpBasicController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="EmpBasic", Name = "員工基本資料", MenuPath = "個人資訊", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <t>員工基本資料(頁簽版)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id="EmpBasic", Name = "員工基本資料(頁簽版)", MenuPath = "個人資訊", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +526,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -624,10 +624,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>

--- a/Docs/Menu功能表.xlsx
+++ b/Docs/Menu功能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\FTIS-EmpManager\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A620547-E1CB-4D45-867D-FA0A80BFB211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED550A5-CD10-4AA5-A336-F0D3C93ECBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,18 +55,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>個人資訊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EmpPathController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Name = "個人資訊", Index = 1, IsOnlyPath = true)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="EmpUser", Name = "員工個人資料", MenuPath = "個人資訊", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EmpUserController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,7 +149,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="EmpBasic", Name = "員工基本資料(頁簽版)", MenuPath = "個人資訊", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <t>員工資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Name = "員工資料", Index = 1, IsOnlyPath = true)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id="EmpUser", Name = "員工個人資料", MenuPath = "員工資料", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id="EmpBasic", Name = "員工基本資料(頁簽版)", MenuPath = "員工資料", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +526,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -565,24 +565,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -592,20 +592,20 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -613,21 +613,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -646,24 +646,24 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -688,32 +688,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Menu功能表.xlsx
+++ b/Docs/Menu功能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\FTIS-EmpManager\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED550A5-CD10-4AA5-A336-F0D3C93ECBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F140FD6F-99B0-474D-B769-B8FC03D5BFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>二、Menu</t>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Name = "系統管理", Index = int.MaxValue, IsOnlyPath = true)]</t>
-  </si>
-  <si>
     <t>系統管理</t>
   </si>
   <si>
@@ -129,10 +126,6 @@
     <t>Select * From [dbo].[F22cmmHoliday]</t>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Name = "人資專區", Index = 2, IsOnlyPath = true)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>員工個人資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,15 +146,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Name = "員工資料", Index = 1, IsOnlyPath = true)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[Dou.Misc.Attr.MenuDef(Id="EmpUser", Name = "員工個人資料", MenuPath = "員工資料", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[Dou.Misc.Attr.MenuDef(Id="EmpBasic", Name = "員工基本資料(頁簽版)", MenuPath = "員工資料", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "SysPath", Name = "系統管理", Index = int.MaxValue, IsOnlyPath = true)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "HrPath", Name = "人資專區", Index = 2, IsOnlyPath = true)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "EmpPath", Name = "員工資料", Index = 1, IsOnlyPath = true)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +527,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -543,46 +544,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -592,78 +593,78 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -688,32 +689,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Menu功能表.xlsx
+++ b/Docs/Menu功能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\FTIS-EmpManager\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F140FD6F-99B0-474D-B769-B8FC03D5BFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F991E35-0BCF-46CB-93B8-D4DD4731E7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>一、MenuPath</t>
   </si>
@@ -80,34 +80,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>休假日設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班表設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HrHolidayInfoController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HrSchInfoController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[Dou.Misc.Attr.MenuDef(Id="xxxxxx", Name = "ooooo", MenuPath = "pppppppppp", Action = "Index", Index = zzz, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="HrHolidayInfo", Name = "休假日設定", MenuPath = "人資專區", Action = "Index", Index =1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="HrSchInfo", Name = "班表設定", MenuPath = "人資專區", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Select * From [dbo].[F22cmmDep]</t>
   </si>
   <si>
@@ -163,6 +139,101 @@
   </si>
   <si>
     <t>[Dou.Misc.Attr.MenuDef(Id = "EmpPath", Name = "員工資料", Index = 1, IsOnlyPath = true)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "Grade", Name = "職級", MenuPath = "人資專區", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "Country", Name = "縣市", MenuPath = "人資專區", Action = "Index", Index = 5, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "MP", Name = "人力分布", MenuPath = "人資專區", Action = "Index", Index = 6, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "Pj", Name = "專案", MenuPath = "人資專區", Action = "Index", Index = 7, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "Pjm", Name = "專案對應", MenuPath = "人資專區", Action = "Index", Index = 8, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "EmpAll", Name = "員工資料總表", MenuPath = "人資專區", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpAllController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GradeController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitleController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountryController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PjController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PjmController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工資料總表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "Dep", Name = "部門", MenuPath = "人資專區", Action = "Index", Index = 3, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "Title", Name = "職等", MenuPath = "人資專區", Action = "Index", Index = 4, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縣市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案對應</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,7 +314,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -524,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -561,18 +631,18 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -583,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -593,7 +663,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -614,24 +684,24 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -646,25 +716,91 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>20</v>
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -689,32 +825,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Menu功能表.xlsx
+++ b/Docs/Menu功能表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\FTIS-EmpManager\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F991E35-0BCF-46CB-93B8-D4DD4731E7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7634E8C-B643-4250-8DB1-A24886F79742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>一、MenuPath</t>
   </si>
@@ -102,34 +102,14 @@
     <t>Select * From [dbo].[F22cmmHoliday]</t>
   </si>
   <si>
-    <t>員工個人資料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpUserController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EmpBasicController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>員工基本資料(頁簽版)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>員工資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="EmpUser", Name = "員工個人資料", MenuPath = "員工資料", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Dou.Misc.Attr.MenuDef(Id="EmpBasic", Name = "員工基本資料(頁簽版)", MenuPath = "員工資料", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[Dou.Misc.Attr.MenuDef(Id = "SysPath", Name = "系統管理", Index = int.MaxValue, IsOnlyPath = true)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +214,14 @@
   </si>
   <si>
     <t>專案對應</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工基本資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id="EmpBasic", Name = "員工基本資料", MenuPath = "員工資料", Action = "Index", Index = 2, Func = Dou.Misc.Attr.FuncEnum.ALL, AllowAnonymous = false)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -631,18 +619,18 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -653,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -684,123 +672,112 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
